--- a/ExperimentResult/TS/ts-convergence-stage-Du62.xlsx
+++ b/ExperimentResult/TS/ts-convergence-stage-Du62.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22010" windowHeight="8640"/>
+    <workbookView windowWidth="22560" windowHeight="11120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>实验次数</t>
   </si>
@@ -59,49 +59,24 @@
     <t>最优结果</t>
   </si>
   <si>
-    <t>[26, 1,41, 5,42,53,51,61,34,27,24,58,35,49,12,19,52,44,31,47,50,32,60,30,
- 56,57,43,40,28,38, 2,11,21,36,18,16,25,29,59,39, 3,55,20, 4,48,23,62, 8,
-  6,46,22,10,14,45,13, 7,37,17,15,33,54, 9]</t>
-  </si>
-  <si>
-    <t>[0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,
- 0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,
- 0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.]</t>
-  </si>
-  <si>
-    <t>[39,25, 4, 8, 3,22,62,47,57,26,51,42,19, 9,41,31,12,44,16,38,52,49,35,46,
- 24,50,30,40,36,43,11,29,18,58,32,21,60,56,28,55, 5, 1, 2,34,61,45,59, 7,
- 20,23, 6,48,10,27,37,14,13,54,53,15,17,33]</t>
-  </si>
-  <si>
-    <t>[0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,
- 1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,
- 0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,1.]</t>
-  </si>
-  <si>
-    <t>[15,33, 9,40,57,32,60,50,30,56,43,36, 2,21,49,27,31,24,12,19,58,53,42,26,
- 51,47,41,23, 6,22, 7,20,55,59,39,25,11,44,16,35,28,38,18,52,29, 1, 5,61,
- 34, 3,14,13,10,45,54,37,17,62, 4, 8,46,48]</t>
-  </si>
-  <si>
-    <t>[0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,
- 0.,0.,1.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,
- 0.,1.,0.,0.,0.,1.,0.,0.,1.,0.,0.,0.,0.,1.]</t>
-  </si>
-  <si>
-    <t>[62,60,50,30,56,40, 2,36,57,32,61,11,24,38,18,53,35,12,44,28,16,27,58,31,
- 26,51,47,19,49,52, 5,42,21,34,41, 1,29,25,59,55,20, 3,39,46, 4,48,43, 8,
-  6, 7,23,10,22,13,45,14,37,54,17,33,15, 9]</t>
-  </si>
-  <si>
-    <t>[0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,
- 0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,
- 1.,0.,0.,0.,0.,1.,0.,0.,0.,1.,0.,0.,0.,1.]</t>
-  </si>
-  <si>
-    <t>[60,21,32,50,57,56, 2,43,30,40,36,25,35,44,24,16,52,38,28,18,12,49,19,31,
- 47,27,58,26, 1, 5,42,53,51,41,61,55,29, 3,59,34,20,39, 4,46,11, 8,23,48,
- 14,62,22, 7,10,13, 6,54,45,37,17,33,15, 9]</t>
+    <t>[ 2,46,60,50,56,57,43,32,36,30,21,35,16,38,28,11,44,18,52,31,27,12,49,19,
+ 24,58,53,42,51,47,26,41,61, 1,34, 5,29, 3,20,55,39,59,25, 8,40, 4,62,48,
+ 23, 6,22, 7,14,13,10,45,54,37,17,15,33, 9]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,
+ 0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,
+ 0.,0.,0.,1.,0.,0.,0.,1.,0.,0.,1.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[43,50,57, 2,56,40,60,36,32,30,21,28,38,18,16,11,44,35,52,24,12,27,31,19,
+ 49,58,51,47,26,53,42,41, 5,29,34, 1,61, 3,20,59,39,55,25,46, 8,62, 4,48,
+ 23, 6,22, 7,13,14,10,45,37,54,17,33,15, 9]</t>
+  </si>
+  <si>
+    <t>[11,32,56,50,57,60, 2,43,30,40,36,21,18,16,35,28,24,44,38,52,12,31,26,19,
+ 27,58,49,47,41,51,61, 5,42, 1,53,29,59, 3,34,55,20,39, 4, 8,46,25,23,48,
+ 62, 6,22,13, 7,10,14,17,45,54,37, 9,33,15]</t>
   </si>
   <si>
     <t>[0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,
@@ -109,54 +84,88 @@
  0.,0.,1.,0.,0.,0.,1.,0.,0.,0.,1.,0.,0.,1.]</t>
   </si>
   <si>
-    <t>[ 7, 6,48,23,46, 8, 4,62,30,31,24,19,49,12,27,58,26,42,44,59, 1,54,53,51,
- 29, 5,61,39,20, 3,34,55,43,28,35,11,16,38,18,47,52,21,40,32,50,60,57,25,
- 22,10,36, 2,13,56,14,45,37,41,17,15,33, 9]</t>
-  </si>
-  <si>
-    <t>[0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,
- 0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,
- 0.,0.,0.,1.,0.,0.,0.,1.,0.,0.,1.,0.,0.,1.]</t>
-  </si>
-  <si>
-    <t>[44,43,35,38, 2,30,18,50,40,28,11,56,57,60,32,16,36,21,53,12,26,49,19,27,
- 24,51,47,52,31,58,61,34,29,42,59,41, 3, 1, 5,55, 6, 8,39,62,48, 4,46,25,
- 20,45,10,22, 7,23,14,13,17,15, 9,37,54,33]</t>
-  </si>
-  <si>
-    <t>[0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,
- 0.,0.,0.,0.,1.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,
- 1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.]</t>
-  </si>
-  <si>
-    <t>[36,30, 2,57,60,40,32,43,50,56,16,28,35,38,11,21,18,44,27,24,12,31,49,52,
- 19,47,58,51,26,53,42,10,22, 7,23,20, 3,55,59,29,25,39, 4,46, 6, 8,62,48,
- 34, 1, 5,61,41,13,14,45,17,37,54, 9,15,33]</t>
+    <t>[50,11,16,60,28,32,38,57,43,40,36,21,30,18, 2,56,52,24,35,12,58,44,27,47,
+ 49,31,19, 1,34,61,26,53,42, 5,41,51,55,29, 3,25,39,20,59, 4, 8,48,23,62,
+ 22,46, 6,45,14,37,13,10, 7,17,54, 9,33,15]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,
+ 0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,
+ 0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[43,38,30,18,57,60,36,21,28,16,11,32,50,40,56, 2,52,31,19,12,24,44,35,27,
+ 58,49,47,51,53, 1,42,41,61, 5,26,34,20,55, 3,29,59,25, 4,39,62, 8,48, 6,
+ 23,46,22,45, 7,10,37,14,13,15,17,33,54, 9]</t>
+  </si>
+  <si>
+    <t>[40, 2,60,36,50,30,43,57,32,21,56,11,28,18,38,16,44,52,24,35,12,27,49,58,
+ 47,31,19,26, 5,53,41,42,51,29,61, 1,34, 3,20,59,55,39, 4,25,46, 8, 6,62,
+ 48,23,22, 7,10,13,14,45,54,37,17,33,15, 9]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,
+ 0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,1.,0.,0.,0.,1.,0.,0.,
+ 0.,1.,0.,0.,1.,0.,0.,1.,0.,0.,1.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[28,21,56,57,50,60,18,38,16,40,30,11,32,43, 2,36,35,19,24,12,47,31,58,27,
+ 44,52,49,53,42,26,61, 1,41, 5,51,34,39,29,25,55, 3,59,20, 4,62,46,23,22,
+  8, 6,48,14,45, 7,10,37,13, 9,17,54,33,15]</t>
+  </si>
+  <si>
+    <t>[31,26,58,47,49,27,19, 6,24,16,28,52,12,35,38,44,30,32,60, 2,40,43,50,57,
+ 11,21,36,56,51, 5,53,42, 1,61,41,20,55,59,29,34, 3,39, 8,25, 4,46,48,62,
+ 18,23,22,10,14, 7,13, 9,37,15,45,33,54,17]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,
+ 0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,
+ 0.,0.,1.,0.,0.,0.,1.,0.,0.,0.,1.,0.,0.,0.]</t>
+  </si>
+  <si>
+    <t>[43,36,40,50,32,30, 2,60,56,57,21,38,35,28,18,11,44,16,52,27,24,31,19,49,
+ 12,58,53,26,51,47,42,41,34,61, 5,29, 1, 3,59,55,20,39,25, 4,62, 8,46,48,
+ 22,23, 6, 7,14,10,13,45,54,37,17,15,33, 9]</t>
+  </si>
+  <si>
+    <t>[43,31,30,57,32,56,36,40,60, 2,16,44,11,35,28,38,17,21,52,27,24,12,19,49,
+ 50,42, 6, 8,48,34,41,61, 1,14,59,20,29, 3,55,39, 4,25,46,15, 9,33, 7,22,
+ 10,23, 5,54,13,37,45,18,47,51,26,53,62,58]</t>
   </si>
   <si>
     <t>[0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,
- 1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,1.,0.,0.,0.,1.,
- 0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,1.]</t>
-  </si>
-  <si>
-    <t>[33,24,14,53,48,25,36,57,13,31, 8,20,18,29,55,15,19, 2, 6,43,50, 7, 4,62,
- 51,37,17,44,22,54,47, 9,46,16,41,38,27,39,45,60,26,34,10,49,42,35, 1,21,
- 30, 5,52,58,32,28,11,23,12, 3,61,40,56,59]</t>
-  </si>
-  <si>
-    <t>[0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,
- 0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,
- 0.,0.,1.,0.,1.,0.,0.,0.,0.,1.,1.,0.,0.,1.]</t>
-  </si>
-  <si>
-    <t>[48, 8,62,10,21,38,37,11,16,18,35,44,19,12,24,49,31,27,52,42,51,53,58,47,
- 26,34, 1, 5,61,41,20, 3,55,59,29, 4,39,25,46,56,57,32,43, 2,60,36,50,40,
- 30,23, 7,22, 6,13,14,45,17,54,28,15,33, 9]</t>
-  </si>
-  <si>
-    <t>[0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,
- 1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,
+ 1.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,1.,0.,0.,1.,0.,0.,
+ 0.,1.,0.,0.,1.,0.,0.,1.,0.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[40,60,43,36, 2,50,57,32,30,56,21,35,18,16,11,28,38,44,27,31,12,52,24,49,
+ 19,58,26,47,53,51,42,61, 5,41, 1,34,59, 3,29,55,20,39,25, 4,46,48, 8,62,
+  6,23,22, 7,10,14,13,45,37,54,17,15,33, 9]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,
+ 1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,1.,0.,0.,0.,
  1.,0.,0.,0.,1.,0.,0.,1.,0.,0.,1.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[ 2,17,32,36,61,44,31,11,20,38, 5,18,49,34,25,59,13,41, 8,37,53,47,12, 4,
+  3,56,54,46,21,15,26,57, 9,30,39,60,55,10,51,52,19,40,45,22,29,28,58,33,
+ 62,24, 7,23, 6,16,42,14,27,50,43,48,35, 1]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,
+ 0.,0.,1.,0.,1.,0.,1.,0.,0.,0.,0.,1.,1.,0.,0.,0.,1.,0.,0.,0.,0.,1.,1.,0.,
+ 0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,1.,1.]</t>
+  </si>
+  <si>
+    <t>最小值</t>
+  </si>
+  <si>
+    <t>最大值</t>
+  </si>
+  <si>
+    <t>平均值</t>
   </si>
 </sst>
 </file>
@@ -170,7 +179,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,13 +190,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -655,148 +657,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1152,10 +1154,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1166,7 +1168,8 @@
     <col min="5" max="5" width="20.2727272727273" customWidth="1"/>
     <col min="6" max="6" width="21.2727272727273" customWidth="1"/>
     <col min="8" max="8" width="46.4545454545455" customWidth="1"/>
-    <col min="9" max="9" width="27.7272727272727" customWidth="1"/>
+    <col min="9" max="9" width="40.0727272727273" customWidth="1"/>
+    <col min="10" max="10" width="17.4636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1203,13 +1206,13 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>45557.4885648148</v>
+        <v>45557.5640543287</v>
       </c>
       <c r="C2" s="2">
-        <v>45557.4885672801</v>
+        <v>45557.5640543287</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1230,18 +1233,18 @@
         <v>11</v>
       </c>
       <c r="J2">
-        <v>4548185.87269836</v>
+        <v>18552576.7562911</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>45557.4915668403</v>
+        <v>45557.5670462384</v>
       </c>
       <c r="C3" s="2">
-        <v>45557.4915668403</v>
+        <v>45557.5670462384</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1259,21 +1262,21 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J3">
-        <v>4443976.18850552</v>
+        <v>18787636.5115015</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>45557.4945852546</v>
+        <v>45557.5700260764</v>
       </c>
       <c r="C4" s="2">
-        <v>45557.4945852546</v>
+        <v>45557.5700260764</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1288,24 +1291,24 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
       <c r="J4">
-        <v>18249528.2799365</v>
+        <v>4649424.60583491</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>45557.4976076968</v>
+        <v>45557.5730257986</v>
       </c>
       <c r="C5" s="2">
-        <v>45557.4976076968</v>
+        <v>45557.5730257986</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1320,24 +1323,24 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
         <v>16</v>
       </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
       <c r="J5">
-        <v>4663084.09803194</v>
+        <v>4551421.90651668</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>45557.5006065625</v>
+        <v>45557.5760046875</v>
       </c>
       <c r="C6" s="2">
-        <v>45557.5006065625</v>
+        <v>45557.5760046875</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1352,24 +1355,24 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J6">
-        <v>4606895.43973217</v>
+        <v>4559109.3085757</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>45557.5035859838</v>
+        <v>45557.5789533102</v>
       </c>
       <c r="C7" s="2">
-        <v>45557.5035859838</v>
+        <v>45557.5789533102</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1384,24 +1387,24 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J7">
-        <v>13095147.7832937</v>
+        <v>46918492.7097268</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>45557.506579838</v>
+        <v>45557.5819301736</v>
       </c>
       <c r="C8" s="2">
-        <v>45557.506579838</v>
+        <v>45557.5819301736</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1416,24 +1419,24 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J8">
-        <v>9319697.06999885</v>
+        <v>4544682.95459155</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>45557.5095535069</v>
+        <v>45557.5848878588</v>
       </c>
       <c r="C9" s="2">
-        <v>45557.5095535069</v>
+        <v>45557.5848878588</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1448,24 +1451,24 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J9">
-        <v>4718798.26978449</v>
+        <v>4445893.05321845</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>45557.5125425926</v>
+        <v>45557.587831956</v>
       </c>
       <c r="C10" s="2">
-        <v>45557.5125425926</v>
+        <v>45557.587831956</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1480,24 +1483,24 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="J10">
-        <v>56220517.043972</v>
+        <v>18652410.1512648</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>45557.5155439815</v>
+        <v>45557.5908769329</v>
       </c>
       <c r="C11" s="2">
-        <v>45557.5155439815</v>
+        <v>45557.5908769329</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1512,13 +1515,104 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11">
+        <v>24494783.7666041</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45557.5939753125</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45557.5939753125</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>10000</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12">
+        <v>32200379.2434844</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45557.5969892599</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45557.5969892599</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>10000</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
         <v>28</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I13" t="s">
         <v>29</v>
       </c>
-      <c r="J11">
-        <v>27495073.0408992</v>
+      <c r="J13">
+        <v>56983610.9634616</v>
+      </c>
+    </row>
+    <row r="14" spans="9:10">
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14">
+        <f>MIN(J2:J13)</f>
+        <v>4445893.05321845</v>
+      </c>
+    </row>
+    <row r="15" spans="9:10">
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15">
+        <f>MAX(J2:J13)</f>
+        <v>56983610.9634616</v>
+      </c>
+    </row>
+    <row r="16" spans="9:10">
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16">
+        <f>AVERAGE(J2:J13)</f>
+        <v>19945035.1609226</v>
       </c>
     </row>
   </sheetData>
